--- a/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A659CC9-07BE-4233-93D5-449F01F3146E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EA92F0-F6AC-4DEB-8FF4-5D8A13CAC23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B23068D2-0B41-4E6E-8FBF-3AFC9917AAA7}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0AF2D5-9754-4DC3-ACED-8293BC0E31F2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,313 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>8,61%</t>
@@ -98,54 +401,15 @@
     <t>10,77%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>4,31%</t>
   </si>
   <si>
     <t>3,42%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
     <t>8,94%</t>
   </si>
   <si>
@@ -158,39 +422,6 @@
     <t>4,56%</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>2,53%</t>
   </si>
   <si>
@@ -218,141 +449,183 @@
     <t>6,75%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
@@ -380,30 +653,6 @@
     <t>7,38%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
@@ -413,9 +662,6 @@
     <t>6,5%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>1,45%</t>
   </si>
   <si>
@@ -428,33 +674,6 @@
     <t>3,43%</t>
   </si>
   <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
     <t>4,37%</t>
   </si>
   <si>
@@ -479,223 +698,58 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -722,33 +776,6 @@
     <t>7,69%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
@@ -771,33 +798,6 @@
   </si>
   <si>
     <t>2,74%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B2B0B7-59B1-425E-BC46-63B1E13755DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AFC45-D59D-4961-B2F5-87E1479B7E2A}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1328,10 +1328,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>12744</v>
+        <v>2729</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1343,10 +1343,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>5021</v>
+        <v>4688</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1358,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>17765</v>
+        <v>7417</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1379,10 +1379,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>25850</v>
+        <v>3826</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1394,10 +1394,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>15205</v>
+        <v>2072</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1409,10 +1409,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>41055</v>
+        <v>5898</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1430,10 +1430,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>1815</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1445,10 +1445,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>3493</v>
+        <v>2136</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1460,10 +1460,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>5308</v>
+        <v>2136</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1481,100 +1481,100 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>103782</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="7">
-        <v>99</v>
-      </c>
-      <c r="I7" s="7">
-        <v>73409</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="7">
-        <v>224</v>
-      </c>
-      <c r="N7" s="7">
-        <v>177191</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3737</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>5110</v>
+        <v>872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>8847</v>
+        <v>872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1583,102 +1583,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147928</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250167</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>6633</v>
+        <v>49087</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>728</v>
+        <v>37265</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="N10" s="7">
-        <v>7361</v>
+        <v>86352</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1693,13 +1693,13 @@
         <v>9633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1708,13 +1708,13 @@
         <v>9473</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -1723,13 +1723,13 @@
         <v>19106</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1738,49 +1738,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>1177</v>
+        <v>6633</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>1757</v>
+        <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>2934</v>
+        <v>7361</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,55 +1789,55 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>49087</v>
+        <v>1177</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>37265</v>
+        <v>1757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>86352</v>
+        <v>2934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1846,13 +1846,13 @@
         <v>2748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -1861,13 +1861,13 @@
         <v>2375</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -1876,13 +1876,13 @@
         <v>5124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1912,13 +1912,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1927,66 +1927,66 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D16" s="7">
-        <v>3140</v>
+        <v>103782</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7">
-        <v>5169</v>
+        <v>73409</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="N16" s="7">
-        <v>8308</v>
+        <v>177191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,49 +1995,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>12459</v>
+        <v>25850</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>15553</v>
+        <v>15205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M17" s="7">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="N17" s="7">
-        <v>28012</v>
+        <v>41055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,49 +2046,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>1737</v>
+        <v>12744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>5021</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="N18" s="7">
-        <v>1737</v>
+        <v>17765</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,100 +2097,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>71585</v>
+        <v>1815</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>73941</v>
+        <v>3493</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>145526</v>
+        <v>5308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>4065</v>
+        <v>3737</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
       </c>
       <c r="I20" s="7">
-        <v>4528</v>
+        <v>5110</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N20" s="7">
-        <v>8593</v>
+        <v>8847</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,102 +2199,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>73705</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="I22" s="7">
-        <v>2136</v>
+        <v>70868</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>2136</v>
+        <v>144573</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,49 +2303,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D23" s="7">
-        <v>3826</v>
+        <v>24142</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>2072</v>
+        <v>16563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M23" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="N23" s="7">
-        <v>5898</v>
+        <v>40704</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2354,49 +2354,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>2871</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>5394</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>8265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2405,100 +2405,100 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>2729</v>
+        <v>840</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2258</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3097</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4688</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="M25" s="7">
-        <v>13</v>
-      </c>
-      <c r="N25" s="7">
-        <v>7417</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>872</v>
+        <v>2561</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2990</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>872</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2507,102 +2507,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>97643</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>199630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="D28" s="7">
-        <v>2871</v>
+        <v>71585</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>97</v>
+      </c>
+      <c r="I28" s="7">
+        <v>73941</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H28" s="7">
-        <v>8</v>
-      </c>
-      <c r="I28" s="7">
-        <v>5394</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="M28" s="7">
         <v>185</v>
       </c>
-      <c r="M28" s="7">
-        <v>12</v>
-      </c>
       <c r="N28" s="7">
-        <v>8265</v>
+        <v>145526</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,49 +2611,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D29" s="7">
-        <v>24142</v>
+        <v>12459</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>21</v>
+      </c>
+      <c r="I29" s="7">
+        <v>15553</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H29" s="7">
-        <v>22</v>
-      </c>
-      <c r="I29" s="7">
-        <v>16563</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="7">
+        <v>37</v>
+      </c>
+      <c r="N29" s="7">
+        <v>28012</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="M29" s="7">
-        <v>46</v>
-      </c>
-      <c r="N29" s="7">
-        <v>40704</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2662,28 +2662,28 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>840</v>
+        <v>3140</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>7</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5169</v>
+      </c>
+      <c r="J30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H30" s="7">
-        <v>3</v>
-      </c>
-      <c r="I30" s="7">
-        <v>2258</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>200</v>
@@ -2692,10 +2692,10 @@
         <v>201</v>
       </c>
       <c r="M30" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N30" s="7">
-        <v>3097</v>
+        <v>8308</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>202</v>
@@ -2713,10 +2713,10 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>73705</v>
+        <v>1737</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>205</v>
@@ -2728,76 +2728,76 @@
         <v>207</v>
       </c>
       <c r="H31" s="7">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="I31" s="7">
-        <v>70868</v>
+        <v>0</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>3</v>
+      </c>
+      <c r="N31" s="7">
+        <v>1737</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="M31" s="7">
-        <v>163</v>
-      </c>
-      <c r="N31" s="7">
-        <v>144573</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="7">
-        <v>430</v>
+        <v>4065</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>214</v>
       </c>
       <c r="H32" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I32" s="7">
-        <v>2561</v>
+        <v>4528</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>216</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>2990</v>
+        <v>8593</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>217</v>
@@ -2815,49 +2815,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>97643</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>199630</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,49 +2868,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="D34" s="7">
-        <v>25388</v>
+        <v>300887</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>220</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="I34" s="7">
-        <v>18447</v>
+        <v>260172</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
-        <v>52</v>
+        <v>692</v>
       </c>
       <c r="N34" s="7">
-        <v>43835</v>
+        <v>561059</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2925,13 @@
         <v>75911</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7">
         <v>81</v>
@@ -2940,13 +2940,13 @@
         <v>58864</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M35" s="7">
         <v>169</v>
@@ -2955,13 +2955,13 @@
         <v>134775</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2970,49 +2970,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D36" s="7">
-        <v>5568</v>
+        <v>25388</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="H36" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I36" s="7">
-        <v>7508</v>
+        <v>18447</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N36" s="7">
-        <v>13077</v>
+        <v>43835</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,25 +3021,25 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="D37" s="7">
-        <v>300887</v>
+        <v>5568</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c r="H37" s="7">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="I37" s="7">
-        <v>260172</v>
+        <v>7508</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>248</v>
@@ -3051,10 +3051,10 @@
         <v>250</v>
       </c>
       <c r="M37" s="7">
-        <v>692</v>
+        <v>18</v>
       </c>
       <c r="N37" s="7">
-        <v>561059</v>
+        <v>13077</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>251</v>
@@ -3069,7 +3069,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C38" s="7">
         <v>14</v>
@@ -3078,7 +3078,7 @@
         <v>10981</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>254</v>
@@ -3093,7 +3093,7 @@
         <v>15446</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>256</v>
@@ -3129,13 +3129,13 @@
         <v>418734</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3144,13 +3144,13 @@
         <v>360438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="M39" s="7">
         <v>964</v>
@@ -3159,13 +3159,13 @@
         <v>779172</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09EA92F0-F6AC-4DEB-8FF4-5D8A13CAC23F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{587ADDD4-F40B-4C8B-BF3F-6A09EB50D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6A0AF2D5-9754-4DC3-ACED-8293BC0E31F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFE4C3D5-6A40-43DD-8F10-F7FA113B3593}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="263">
   <si>
     <t>Menores según frecuencia de estar demasiado cansado para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -68,6 +68,90 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -98,622 +182,637 @@
     <t>66,28%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>72,01%</t>
@@ -722,103 +821,10 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -925,39 +931,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1009,7 +1015,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1120,13 +1126,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1135,6 +1134,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1199,19 +1205,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96AFC45-D59D-4961-B2F5-87E1479B7E2A}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1C9977-B40F-4F6C-AC02-6366A7000E09}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1328,10 +1354,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2729</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1343,91 +1369,91 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>4688</v>
+        <v>872</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>872</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7417</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>4</v>
-      </c>
-      <c r="D5" s="7">
-        <v>3826</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2072</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>5898</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1436,13 +1462,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -1451,13 +1477,13 @@
         <v>2136</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -1466,112 +1492,112 @@
         <v>2136</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>3826</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2072</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>5898</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>2729</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4688</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>872</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>13</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7417</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>872</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>47</v>
@@ -1636,10 +1662,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>49087</v>
+        <v>2748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1651,10 +1677,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>37265</v>
+        <v>2375</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1666,10 +1692,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>107</v>
+        <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>86352</v>
+        <v>5124</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1684,58 +1710,58 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>9633</v>
+        <v>1177</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1757</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>13</v>
-      </c>
-      <c r="I11" s="7">
-        <v>9473</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2934</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="7">
-        <v>27</v>
-      </c>
-      <c r="N11" s="7">
-        <v>19106</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>5</v>
@@ -1744,13 +1770,13 @@
         <v>6633</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -1759,13 +1785,13 @@
         <v>728</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1774,115 +1800,115 @@
         <v>7361</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>1177</v>
+        <v>9633</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="7">
+        <v>13</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9473</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1757</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>27</v>
+      </c>
+      <c r="N13" s="7">
+        <v>19106</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M13" s="7">
-        <v>5</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2934</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>2748</v>
+        <v>49087</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>53</v>
+      </c>
+      <c r="I14" s="7">
+        <v>37265</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2375</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>107</v>
+      </c>
+      <c r="N14" s="7">
+        <v>86352</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5124</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,112 +1964,112 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>103782</v>
+        <v>3737</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5110</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="7">
+      <c r="K16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" s="7">
+        <v>8847</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I16" s="7">
-        <v>73409</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="7">
-        <v>224</v>
-      </c>
-      <c r="N16" s="7">
-        <v>177191</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>25850</v>
+        <v>1815</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3493</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="7">
-        <v>21</v>
-      </c>
-      <c r="I17" s="7">
-        <v>15205</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5308</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="M17" s="7">
-        <v>51</v>
-      </c>
-      <c r="N17" s="7">
-        <v>41055</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>14</v>
@@ -2052,13 +2078,13 @@
         <v>12744</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -2067,13 +2093,13 @@
         <v>5021</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -2082,115 +2108,115 @@
         <v>17765</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D19" s="7">
-        <v>1815</v>
+        <v>25850</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="7">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7">
+        <v>15205</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3493</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>51</v>
+      </c>
+      <c r="N19" s="7">
+        <v>41055</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>5308</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>125</v>
       </c>
       <c r="D20" s="7">
-        <v>3737</v>
+        <v>103782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>99</v>
+      </c>
+      <c r="I20" s="7">
+        <v>73409</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="7">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5110</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>224</v>
+      </c>
+      <c r="N20" s="7">
+        <v>177191</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="M20" s="7">
-        <v>10</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8847</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,112 +2272,112 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>73705</v>
+        <v>430</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2561</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H22" s="7">
-        <v>83</v>
-      </c>
-      <c r="I22" s="7">
-        <v>70868</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2990</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="M22" s="7">
-        <v>163</v>
-      </c>
-      <c r="N22" s="7">
-        <v>144573</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>24142</v>
+        <v>840</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2258</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M23" s="7">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3097</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="7">
-        <v>22</v>
-      </c>
-      <c r="I23" s="7">
-        <v>16563</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="M23" s="7">
-        <v>46</v>
-      </c>
-      <c r="N23" s="7">
-        <v>40704</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>4</v>
@@ -2360,13 +2386,13 @@
         <v>2871</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2375,13 +2401,13 @@
         <v>5394</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2390,115 +2416,115 @@
         <v>8265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>840</v>
+        <v>24142</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="7">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7">
+        <v>16563</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>46</v>
+      </c>
+      <c r="N25" s="7">
+        <v>40704</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2258</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3097</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D26" s="7">
-        <v>430</v>
+        <v>73705</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H26" s="7">
+        <v>83</v>
+      </c>
+      <c r="I26" s="7">
+        <v>70868</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2561</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>163</v>
+      </c>
+      <c r="N26" s="7">
+        <v>144573</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="7">
-        <v>4</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2990</v>
-      </c>
-      <c r="O26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,112 +2580,112 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>71585</v>
+        <v>4065</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>4528</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="H28" s="7">
-        <v>97</v>
-      </c>
-      <c r="I28" s="7">
-        <v>73941</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>12</v>
+      </c>
+      <c r="N28" s="7">
+        <v>8593</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="M28" s="7">
+      <c r="Q28" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="N28" s="7">
-        <v>145526</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>12459</v>
+        <v>1737</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1737</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="7">
-        <v>21</v>
-      </c>
-      <c r="I29" s="7">
-        <v>15553</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="M29" s="7">
-        <v>37</v>
-      </c>
-      <c r="N29" s="7">
-        <v>28012</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2668,13 +2694,13 @@
         <v>3140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2683,13 +2709,13 @@
         <v>5169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2698,94 +2724,94 @@
         <v>8308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D31" s="7">
-        <v>1737</v>
+        <v>12459</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" s="7">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7">
+        <v>15553</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>37</v>
+      </c>
+      <c r="N31" s="7">
+        <v>28012</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="M31" s="7">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1737</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D32" s="7">
-        <v>4065</v>
+        <v>71585</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>97</v>
+      </c>
+      <c r="I32" s="7">
+        <v>73941</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H32" s="7">
-        <v>6</v>
-      </c>
-      <c r="I32" s="7">
-        <v>4528</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>215</v>
@@ -2794,10 +2820,10 @@
         <v>216</v>
       </c>
       <c r="M32" s="7">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="N32" s="7">
-        <v>8593</v>
+        <v>145526</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>217</v>
@@ -2868,106 +2894,106 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>352</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>300887</v>
+        <v>10981</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>19</v>
+      </c>
+      <c r="I34" s="7">
+        <v>15446</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H34" s="7">
-        <v>340</v>
-      </c>
-      <c r="I34" s="7">
-        <v>260172</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="K34" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>33</v>
+      </c>
+      <c r="N34" s="7">
+        <v>26426</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M34" s="7">
-        <v>692</v>
-      </c>
-      <c r="N34" s="7">
-        <v>561059</v>
-      </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="D35" s="7">
-        <v>75911</v>
+        <v>5568</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="H35" s="7">
+        <v>10</v>
+      </c>
+      <c r="I35" s="7">
+        <v>7508</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H35" s="7">
-        <v>81</v>
-      </c>
-      <c r="I35" s="7">
-        <v>58864</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>18</v>
+      </c>
+      <c r="N35" s="7">
+        <v>13077</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M35" s="7">
-        <v>169</v>
-      </c>
-      <c r="N35" s="7">
-        <v>134775</v>
-      </c>
-      <c r="O35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
         <v>27</v>
@@ -2976,13 +3002,13 @@
         <v>25388</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H36" s="7">
         <v>25</v>
@@ -2991,13 +3017,13 @@
         <v>18447</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>52</v>
@@ -3006,79 +3032,79 @@
         <v>43835</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C37" s="7">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D37" s="7">
-        <v>5568</v>
+        <v>75911</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="H37" s="7">
+        <v>81</v>
+      </c>
+      <c r="I37" s="7">
+        <v>58864</v>
+      </c>
+      <c r="J37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" s="7">
-        <v>10</v>
-      </c>
-      <c r="I37" s="7">
-        <v>7508</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>169</v>
+      </c>
+      <c r="N37" s="7">
+        <v>134775</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="M37" s="7">
-        <v>18</v>
-      </c>
-      <c r="N37" s="7">
-        <v>13077</v>
-      </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C38" s="7">
-        <v>14</v>
+        <v>352</v>
       </c>
       <c r="D38" s="7">
-        <v>10981</v>
+        <v>300887</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>254</v>
@@ -3087,34 +3113,34 @@
         <v>255</v>
       </c>
       <c r="H38" s="7">
-        <v>19</v>
+        <v>340</v>
       </c>
       <c r="I38" s="7">
-        <v>15446</v>
+        <v>260172</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M38" s="7">
-        <v>33</v>
+        <v>692</v>
       </c>
       <c r="N38" s="7">
-        <v>26426</v>
+        <v>561059</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,6 +3192,11 @@
       </c>
       <c r="Q39" s="7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{587ADDD4-F40B-4C8B-BF3F-6A09EB50D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{628B9CA0-DC2A-4FEC-8497-623691F03A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FFE4C3D5-6A40-43DD-8F10-F7FA113B3593}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05A79A0D-436E-404F-8D5B-1F1109625A15}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -83,13 +83,13 @@
     <t>8,93%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>34,58%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>21,31%</t>
+    <t>25,62%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -107,10 +107,10 @@
     <t>21,87%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>13,09%</t>
@@ -119,7 +119,7 @@
     <t>3,82%</t>
   </si>
   <si>
-    <t>35,45%</t>
+    <t>32,76%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -128,28 +128,28 @@
     <t>58,37%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -158,670 +158,670 @@
     <t>41,63%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>23,8%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>72,58%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
   </si>
   <si>
     <t>7,38%</t>
   </si>
   <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>5,63%</t>
   </si>
   <si>
     <t>4,1%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
     <t>7,39%</t>
   </si>
   <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>20,18%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1C9977-B40F-4F6C-AC02-6366A7000E09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34367E0-F2F7-4365-A444-C447803D1B35}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1827,7 +1827,7 @@
         <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -1836,13 +1836,13 @@
         <v>9473</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -1851,13 +1851,13 @@
         <v>19106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1872,13 +1872,13 @@
         <v>49087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -1887,13 +1887,13 @@
         <v>37265</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>107</v>
@@ -1902,13 +1902,13 @@
         <v>86352</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1976,13 +1976,13 @@
         <v>3737</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -1991,13 +1991,13 @@
         <v>5110</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -2006,13 +2006,13 @@
         <v>8847</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2027,13 +2027,13 @@
         <v>1815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2042,10 +2042,10 @@
         <v>3493</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>106</v>
@@ -2057,10 +2057,10 @@
         <v>5308</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>108</v>
@@ -2353,7 +2353,7 @@
         <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>115</v>
@@ -2365,13 +2365,13 @@
         <v>3097</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>116</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2386,13 @@
         <v>2871</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -2401,13 +2401,13 @@
         <v>5394</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2416,13 +2416,13 @@
         <v>8265</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2437,13 @@
         <v>24142</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -2452,13 +2452,13 @@
         <v>16563</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -2467,13 +2467,13 @@
         <v>40704</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2488,13 @@
         <v>73705</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
@@ -2503,13 +2503,13 @@
         <v>70868</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>163</v>
@@ -2518,13 +2518,13 @@
         <v>144573</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2580,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2592,13 @@
         <v>4065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -2607,13 +2607,13 @@
         <v>4528</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -2622,13 +2622,13 @@
         <v>8593</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2643,13 @@
         <v>1737</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2664,7 +2664,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M29" s="7">
         <v>3</v>
@@ -2673,13 +2673,13 @@
         <v>1737</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2694,13 @@
         <v>3140</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -2709,13 +2709,13 @@
         <v>5169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>11</v>
@@ -2724,13 +2724,13 @@
         <v>8308</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2745,13 @@
         <v>12459</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H31" s="7">
         <v>21</v>
@@ -2760,13 +2760,13 @@
         <v>15553</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M31" s="7">
         <v>37</v>
@@ -2775,13 +2775,13 @@
         <v>28012</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2796,13 +2796,13 @@
         <v>71585</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -2811,13 +2811,13 @@
         <v>73941</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M32" s="7">
         <v>185</v>
@@ -2826,13 +2826,13 @@
         <v>145526</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,10 +2903,10 @@
         <v>139</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H34" s="7">
         <v>19</v>
@@ -2915,13 +2915,13 @@
         <v>15446</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M34" s="7">
         <v>33</v>
@@ -2930,13 +2930,13 @@
         <v>26426</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2951,13 @@
         <v>5568</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>151</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -2981,13 +2981,13 @@
         <v>13077</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>57</v>
+        <v>234</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,7 +3002,7 @@
         <v>25388</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>237</v>
@@ -3035,10 +3035,10 @@
         <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>156</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3053,13 @@
         <v>75911</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>81</v>
@@ -3068,13 +3068,13 @@
         <v>58864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>169</v>
@@ -3083,10 +3083,10 @@
         <v>134775</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>252</v>
